--- a/biology/Botanique/Colutea_nepalensis/Colutea_nepalensis.xlsx
+++ b/biology/Botanique/Colutea_nepalensis/Colutea_nepalensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baguenaudier du Népal - Colutea nepalensis - est une espèce de plantes de la famille des Fabacées originaire de l'Himalaya.
 Nom chinois : 尼泊尔鱼鳔槐
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Colutea nepalensis est un arbuste caduc pouvant atteindre trois mètres de haut.
 Les vieilles branches prennent une coloration brune à brunâtre alors que l'écorce des jeunes branches de l'année est blanche - blanche-verdâtre.
@@ -549,7 +563,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baguenaudier du Népal est originaire de la région himalayenne : Afghanistan, Chine, Inde, Népal et Pakistan.
 Il y croît dans les dépôts des lits des rivières de montagne, parmi les arbustes et buissons xérophiles ou semi-xérophiles.
@@ -581,11 +597,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a d'abord un rôle écologique dans le maintien et la préservation des sols, outre le couvert qu'il peut à assurer à la faune[1].
-En Inde, son bois est utilisé comme combustible[2].
-Enfin, une utilisation comme purgatif au Népal est signalée par William Dymock[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a d'abord un rôle écologique dans le maintien et la préservation des sols, outre le couvert qu'il peut à assurer à la faune.
+En Inde, son bois est utilisé comme combustible.
+Enfin, une utilisation comme purgatif au Népal est signalée par William Dymock
 </t>
         </is>
       </c>
@@ -614,10 +632,12 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1826, John Sims décrit une première fois cette espèce à partir d'un exemplaire issues de graines ramenées du Népal et mises en culture par les horticulteurs Whitley, Brame et Milne à la serre de Fulham (Londres)[4].
-En 1876, John Gilbert Baker en fait une variété de Colutea arborescens : Colutea arborescens var. nepalensis (Sims) Baker[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1826, John Sims décrit une première fois cette espèce à partir d'un exemplaire issues de graines ramenées du Népal et mises en culture par les horticulteurs Whitley, Brame et Milne à la serre de Fulham (Londres).
+En 1876, John Gilbert Baker en fait une variété de Colutea arborescens : Colutea arborescens var. nepalensis (Sims) Baker.
 En 1957, Alexander Gilli decrit une plante sous le nom de Colutea rostrata Gilli : des trois planches réalisées, une fait référence à Colutea paulsenii Freyn &amp; Sint. ex Freyn (planche A) et deux à Colutea nepalensis Sims. Il s'agit de plus d'un homonyme illégal de Colutea rostrata Sumnev..
 En 1967, Kasimierz Browicz la place dans la section Rostrata, sous-section Centralasiaticae.
 </t>
